--- a/src/main/testdata/Login.xlsx
+++ b/src/main/testdata/Login.xlsx
@@ -21,27 +21,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t xml:space="preserve">BaseURL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
+    <t xml:space="preserve">https://dev-api.fundsindia.com</t>
   </si>
   <si>
     <t xml:space="preserve">Cell Format --&gt; Text</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dev-api.fundsindia.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Local Data</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">dsathish0223@gmail.com</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dsathish0223@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Regression@gmail.com</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://testapi.fundsindia.com</t>
@@ -56,7 +71,7 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Koushik@2627</t>
+    <t xml:space="preserve">asdfasdf12</t>
   </si>
   <si>
     <t xml:space="preserve">https://scrum-api.fundsindia.com</t>
@@ -97,6 +112,9 @@
     <t xml:space="preserve">growth</t>
   </si>
   <si>
+    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">HoldingID</t>
   </si>
   <si>
@@ -129,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cell Format --&gt; Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsathish0223@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">1403821</t>
@@ -219,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79958299852</t>
   </si>
   <si>
     <t xml:space="preserve">Switch Data</t>
@@ -471,6 +495,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -495,13 +520,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -521,6 +539,11 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -599,7 +622,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,7 +671,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,11 +687,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,7 +711,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,7 +723,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,23 +739,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,7 +767,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,7 +891,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,112 +919,112 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>183318</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>179480</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>182347</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,18 +1032,18 @@
       <c r="B6" s="15"/>
       <c r="C6" s="1"/>
       <c r="E6" s="6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1"/>
       <c r="M6" s="6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1032,21 +1063,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="8" s="19" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>22</v>
+      <c r="B9" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -1062,10 +1093,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1075,91 +1106,91 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="12" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="22" t="s">
         <v>38</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="24" t="s">
         <v>40</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>44</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="24.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>46</v>
       </c>
+      <c r="B13" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="F13" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="16" s="18" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+    <row r="16" s="19" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="22" t="s">
         <v>52</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
@@ -1169,10 +1200,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="22" t="s">
         <v>54</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
@@ -1183,8 +1214,8 @@
       <c r="A19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>22</v>
+      <c r="B19" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
@@ -1193,23 +1224,23 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" s="18" customFormat="true" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" s="19" customFormat="true" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
@@ -1220,7 +1251,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0</v>
@@ -1233,22 +1264,22 @@
       <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>22</v>
+      <c r="B24" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1274,17 +1305,17 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="32" t="s">
-        <v>58</v>
+    <row r="28" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>22</v>
+      <c r="B29" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
@@ -1296,10 +1327,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>2</v>
@@ -1307,10 +1338,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2</v>
@@ -1318,19 +1349,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1"/>
@@ -1340,17 +1371,17 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="32" t="s">
-        <v>63</v>
+    <row r="35" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>22</v>
+      <c r="B36" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>2</v>
@@ -1362,10 +1393,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
@@ -1373,10 +1404,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>2</v>
@@ -1384,53 +1415,53 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>65</v>
+      <c r="A40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="B41" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="36"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="36"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="6"/>
     </row>
   </sheetData>
@@ -1441,13 +1472,11 @@
     <mergeCell ref="A58:E58"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://staging-api.fundsindia.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="dsathish0223@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId3" display="Koushik@2627"/>
-    <hyperlink ref="F3" r:id="rId4" display="triveni@fundsindia.com"/>
-    <hyperlink ref="F4" r:id="rId5" display="saravanan.e@fundsindia.com"/>
-    <hyperlink ref="I10" r:id="rId6" display="dsathish0223@gmail.com"/>
-    <hyperlink ref="I11" r:id="rId7" display="saravan0989@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://dev-api.fundsindia.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="triveni@fundsindia.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="saravanan.e@fundsindia.com"/>
+    <hyperlink ref="I10" r:id="rId4" display="dsathish0223@gmail.com"/>
+    <hyperlink ref="I11" r:id="rId5" display="saravan0989@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1489,505 +1518,505 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="D4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="I4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="J4" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="41" t="n">
+      <c r="B5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="43" t="n">
         <v>15000</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="40" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="41" t="n">
+      <c r="J5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="43" t="n">
         <v>5000</v>
       </c>
-      <c r="M5" s="38"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="D7" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="39" t="s">
+      <c r="E7" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="K7" s="44" t="s">
         <v>84</v>
       </c>
+      <c r="L7" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="38" t="n">
+      <c r="A8" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="40" t="n">
         <v>7.4</v>
       </c>
-      <c r="C8" s="38" t="n">
+      <c r="C8" s="40" t="n">
         <v>7.16</v>
       </c>
-      <c r="D8" s="38" t="n">
+      <c r="D8" s="40" t="n">
         <v>7.2</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="40" t="n">
         <v>7.27</v>
       </c>
-      <c r="F8" s="38" t="n">
+      <c r="F8" s="40" t="n">
         <v>7.4</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39" t="n">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="40" t="n">
         <v>7.34</v>
       </c>
-      <c r="J8" s="38" t="n">
+      <c r="J8" s="40" t="n">
         <v>7.34</v>
       </c>
-      <c r="K8" s="38" t="n">
+      <c r="K8" s="40" t="n">
         <v>7.39</v>
       </c>
-      <c r="L8" s="38" t="n">
+      <c r="L8" s="40" t="n">
         <v>7.46</v>
       </c>
-      <c r="M8" s="38" t="n">
+      <c r="M8" s="40" t="n">
         <v>7.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="38" t="n">
+      <c r="A9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="40" t="n">
         <v>7.5</v>
       </c>
-      <c r="C9" s="38" t="n">
+      <c r="C9" s="40" t="n">
         <v>7.25</v>
       </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="40" t="n">
         <v>7.3</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="40" t="n">
         <v>7.36</v>
       </c>
-      <c r="F9" s="38" t="n">
+      <c r="F9" s="40" t="n">
         <v>7.5</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39" t="n">
+      <c r="G9" s="40"/>
+      <c r="H9" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="40" t="n">
         <v>7.76</v>
       </c>
-      <c r="J9" s="38" t="n">
+      <c r="J9" s="40" t="n">
         <v>7.76</v>
       </c>
-      <c r="K9" s="38" t="n">
+      <c r="K9" s="40" t="n">
         <v>7.82</v>
       </c>
-      <c r="L9" s="38" t="n">
+      <c r="L9" s="40" t="n">
         <v>7.89</v>
       </c>
-      <c r="M9" s="38" t="n">
+      <c r="M9" s="40" t="n">
         <v>8.05</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="n">
+      <c r="A10" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="B10" s="38" t="n">
+      <c r="B10" s="40" t="n">
         <v>7.55</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="40" t="n">
         <v>7.3</v>
       </c>
-      <c r="D10" s="38" t="n">
+      <c r="D10" s="40" t="n">
         <v>7.35</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="40" t="n">
         <v>7.41</v>
       </c>
-      <c r="F10" s="38" t="n">
+      <c r="F10" s="40" t="n">
         <v>7.55</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39" t="n">
+      <c r="G10" s="40"/>
+      <c r="H10" s="41" t="n">
         <v>36</v>
       </c>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="40" t="n">
         <v>7.95</v>
       </c>
-      <c r="J10" s="38" t="n">
+      <c r="J10" s="40" t="n">
         <v>7.95</v>
       </c>
-      <c r="K10" s="38" t="n">
+      <c r="K10" s="40" t="n">
         <v>8.01</v>
       </c>
-      <c r="L10" s="38" t="n">
+      <c r="L10" s="40" t="n">
         <v>8.09</v>
       </c>
-      <c r="M10" s="38" t="n">
+      <c r="M10" s="40" t="n">
         <v>8.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="38" t="n">
+      <c r="A11" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="40" t="n">
         <v>7.35</v>
       </c>
-      <c r="C11" s="43" t="n">
+      <c r="C11" s="45" t="n">
         <v>7.11</v>
       </c>
-      <c r="D11" s="38" t="n">
+      <c r="D11" s="40" t="n">
         <v>7.16</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="40" t="n">
         <v>7.22</v>
       </c>
-      <c r="F11" s="38" t="n">
+      <c r="F11" s="40" t="n">
         <v>7.35</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39" t="n">
+      <c r="G11" s="40"/>
+      <c r="H11" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="40" t="n">
         <v>8.18</v>
       </c>
-      <c r="J11" s="38" t="n">
+      <c r="J11" s="40" t="n">
         <v>8.18</v>
       </c>
-      <c r="K11" s="38" t="n">
+      <c r="K11" s="40" t="n">
         <v>8.24</v>
       </c>
-      <c r="L11" s="38" t="n">
+      <c r="L11" s="40" t="n">
         <v>8.33</v>
       </c>
-      <c r="M11" s="38" t="n">
+      <c r="M11" s="40" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="38" t="n">
+      <c r="A12" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="40" t="n">
         <v>8.05</v>
       </c>
-      <c r="C12" s="38" t="n">
+      <c r="C12" s="40" t="n">
         <v>7.77</v>
       </c>
-      <c r="D12" s="38" t="n">
+      <c r="D12" s="40" t="n">
         <v>7.82</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="40" t="n">
         <v>7.89</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="40" t="n">
         <v>8.05</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39" t="n">
+      <c r="G12" s="40"/>
+      <c r="H12" s="41" t="n">
         <v>60</v>
       </c>
-      <c r="I12" s="38" t="n">
+      <c r="I12" s="40" t="n">
         <v>8.18</v>
       </c>
-      <c r="J12" s="38" t="n">
+      <c r="J12" s="40" t="n">
         <v>8.18</v>
       </c>
-      <c r="K12" s="38" t="n">
+      <c r="K12" s="40" t="n">
         <v>8.24</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="40" t="n">
         <v>8.33</v>
       </c>
-      <c r="M12" s="38" t="n">
+      <c r="M12" s="40" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="A13" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="n">
+      <c r="A14" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="B14" s="43" t="n">
+      <c r="B14" s="45" t="n">
         <v>7.45</v>
       </c>
-      <c r="C14" s="38" t="n">
+      <c r="C14" s="40" t="n">
         <v>7.21</v>
       </c>
-      <c r="D14" s="38" t="n">
+      <c r="D14" s="40" t="n">
         <v>7.25</v>
       </c>
-      <c r="E14" s="38" t="n">
+      <c r="E14" s="40" t="n">
         <v>7.32</v>
       </c>
-      <c r="F14" s="38" t="n">
+      <c r="F14" s="40" t="n">
         <v>7.45</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="n">
+      <c r="A15" s="41" t="n">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="n">
+      <c r="B15" s="45" t="n">
         <v>7.4</v>
       </c>
-      <c r="C15" s="38" t="n">
+      <c r="C15" s="40" t="n">
         <v>7.16</v>
       </c>
-      <c r="D15" s="38" t="n">
+      <c r="D15" s="40" t="n">
         <v>7.2</v>
       </c>
-      <c r="E15" s="38" t="n">
+      <c r="E15" s="40" t="n">
         <v>7.27</v>
       </c>
-      <c r="F15" s="38" t="n">
+      <c r="F15" s="40" t="n">
         <v>7.4</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="n">
+      <c r="A16" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="B16" s="43" t="n">
+      <c r="B16" s="45" t="n">
         <v>7.5</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="40" t="n">
         <v>7.25</v>
       </c>
-      <c r="D16" s="38" t="n">
+      <c r="D16" s="40" t="n">
         <v>7.3</v>
       </c>
-      <c r="E16" s="38" t="n">
+      <c r="E16" s="40" t="n">
         <v>7.36</v>
       </c>
-      <c r="F16" s="38" t="n">
+      <c r="F16" s="40" t="n">
         <v>7.5</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="n">
+      <c r="A17" s="41" t="n">
         <v>30</v>
       </c>
-      <c r="B17" s="43" t="n">
+      <c r="B17" s="45" t="n">
         <v>7.45</v>
       </c>
-      <c r="C17" s="38" t="n">
+      <c r="C17" s="40" t="n">
         <v>7.21</v>
       </c>
-      <c r="D17" s="38" t="n">
+      <c r="D17" s="40" t="n">
         <v>7.25</v>
       </c>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="40" t="n">
         <v>7.32</v>
       </c>
-      <c r="F17" s="38" t="n">
+      <c r="F17" s="40" t="n">
         <v>7.45</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="n">
+      <c r="A18" s="41" t="n">
         <v>33</v>
       </c>
-      <c r="B18" s="43" t="n">
+      <c r="B18" s="45" t="n">
         <v>7.75</v>
       </c>
-      <c r="C18" s="38" t="n">
+      <c r="C18" s="40" t="n">
         <v>7.49</v>
       </c>
-      <c r="D18" s="38" t="n">
+      <c r="D18" s="40" t="n">
         <v>7.53</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="40" t="n">
         <v>7.61</v>
       </c>
-      <c r="F18" s="38" t="n">
+      <c r="F18" s="40" t="n">
         <v>7.75</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="n">
+      <c r="A19" s="41" t="n">
         <v>44</v>
       </c>
-      <c r="B19" s="43" t="n">
+      <c r="B19" s="45" t="n">
         <v>8.35</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="40" t="n">
         <v>8.05</v>
       </c>
-      <c r="D19" s="38" t="n">
+      <c r="D19" s="40" t="n">
         <v>8.1</v>
       </c>
-      <c r="E19" s="38" t="n">
+      <c r="E19" s="40" t="n">
         <v>8.18</v>
       </c>
-      <c r="F19" s="38" t="n">
+      <c r="F19" s="40" t="n">
         <v>8.35</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
